--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21529,7 +21529,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>09/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/07/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -14503,7 +14503,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F295" t="n">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>29/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/11/2022</t>
+          <t>14/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21415,7 +21415,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Ministerio de Justicia</t>
+          <t>Sociedad Concesionaria Centro de Justicia de Santiago S.A.</t>
         </is>
       </c>
       <c r="F439" t="n">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paz SpA</t>
+          <t>Inmobiliaria PW 75 SPA.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21913,7 +21913,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Edificio San Pablo</t>
+          <t>LÍNEA 9 METRO DE SANTIAGO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Loja V Spa</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>51329</v>
+        <v>1.9461</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160373622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LÍNEA 9 METRO DE SANTIAGO</t>
+          <t>Ampliación Edificio San Pablo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Inmobiliaria e Inversiones Loja V Spa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9461</v>
+        <v>51329</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160373622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21913,7 +21913,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LÍNEA 9 METRO DE SANTIAGO</t>
+          <t>Ampliación Edificio San Pablo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Inmobiliaria e Inversiones Loja V Spa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.9461</v>
+        <v>51329</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160373622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Edificio San Pablo</t>
+          <t>LÍNEA 9 METRO DE SANTIAGO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Loja V Spa</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>51329</v>
+        <v>1.9461</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160373622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">

--- a/data/Santiago.xlsx
+++ b/data/Santiago.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Edificio Arturo Prat - Chiloé</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16000</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Edificio Arturo Prat - Chiloé</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Conjunto Vicuña Mackenna</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SINERGIA INMOBILIARIA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>42458</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Conjunto Vicuña Mackenna</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SINERGIA INMOBILIARIA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>42458</v>
+        <v>1000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
+          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>22780</v>
+        <v>9100</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Edificio DREAM Exp. 185/08 (e-seia)</t>
+          <t>EDIFICIO SARA DEL CAMPO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>9100</v>
+        <v>22780</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Edificio San Ignacio (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Inmnobiliaria San Ignacio S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Edificio San Ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Inmnobiliaria San Ignacio S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2647402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Edificio Nuevo Portugal (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Paz Inmobiliaria Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>234</v>
+        <v>12400</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Edificio Nuevo Portugal (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Paz Inmobiliaria Limitada</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>12400</v>
+        <v>234</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2497050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Envases Orlandini S.A.C.I</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Traslado fabrica de Envases, san Bernardo, Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Envases Orlandini S.A.C.I</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1739610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaración de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina sur oriente de calles Salvador Sanfuentes con Unión Americana</t>
+          <t>Modificación Plan Regulador Comunal de Santiago en el sentido de desafectar la Declaratoria de Utilidad Pública para Área Verde que afecta el predio ubicado en la esquina suroriente de calles Salvador Sanfuentes con Unión Americana</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21913,7 +21913,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
